--- a/teaching/traditional_assets/database/data/qatar/qatar_chemical_basic.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_chemical_basic.xlsx
@@ -590,6 +590,12 @@
           <t>Chemical (Basic)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0692</v>
+      </c>
+      <c r="E2">
+        <v>-0.0469</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -597,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9703637369382826</v>
+        <v>0.979947689625109</v>
       </c>
       <c r="J2">
-        <v>0.9703637369382826</v>
+        <v>0.979947689625109</v>
       </c>
       <c r="K2">
-        <v>236.1</v>
+        <v>280.7</v>
       </c>
       <c r="L2">
-        <v>0.8790022338049143</v>
+        <v>1.223626852659111</v>
       </c>
       <c r="M2">
-        <v>276</v>
+        <v>241.5</v>
       </c>
       <c r="N2">
-        <v>0.0318662540987392</v>
+        <v>0.03418694525841933</v>
       </c>
       <c r="O2">
-        <v>1.168996188055909</v>
+        <v>0.8603491271820449</v>
       </c>
       <c r="P2">
-        <v>276</v>
+        <v>241.5</v>
       </c>
       <c r="Q2">
-        <v>0.0318662540987392</v>
+        <v>0.03418694525841933</v>
       </c>
       <c r="R2">
-        <v>1.168996188055909</v>
+        <v>0.8603491271820449</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.11</v>
+        <v>75.8</v>
       </c>
       <c r="V2">
-        <v>0.0001281577610492772</v>
+        <v>0.0107303124247958</v>
       </c>
       <c r="W2">
-        <v>0.05835969942653747</v>
+        <v>0.07115335868187579</v>
       </c>
       <c r="X2">
-        <v>0.07172893374100303</v>
+        <v>0.05870255866550585</v>
       </c>
       <c r="Y2">
-        <v>-0.01336923431446556</v>
+        <v>0.01245080001636995</v>
       </c>
       <c r="Z2">
-        <v>0.06796126205839932</v>
+        <v>0.05817255999837705</v>
       </c>
       <c r="AA2">
-        <v>0.06594714421803029</v>
+        <v>0.05700606576998762</v>
       </c>
       <c r="AB2">
-        <v>0.07160809225883678</v>
+        <v>0.05870255866550585</v>
       </c>
       <c r="AC2">
-        <v>-0.005660948040806496</v>
+        <v>-0.001696492895518223</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>31.85150129188614</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>31.85150129188614</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>30.74150129188614</v>
+        <v>-75.8</v>
       </c>
       <c r="AH2">
-        <v>0.003664018473507564</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.007908403227536477</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.003536781890135479</v>
+        <v>-0.01084670091438547</v>
       </c>
       <c r="AK2">
-        <v>0.007634905730537178</v>
+        <v>-0.01825406381697772</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>7.666209798475347</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mesaieed Petrochemical Holding Company Q.S.C. (DSM:MPHC)</t>
+          <t>Mesaieed Petrochemical Holding Company Q.P.S.C. (DSM:MPHC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -712,6 +712,12 @@
           <t>Chemical (Basic)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0692</v>
+      </c>
+      <c r="E3">
+        <v>-0.0469</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -719,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9703637369382826</v>
+        <v>0.979947689625109</v>
       </c>
       <c r="J3">
-        <v>0.9703637369382826</v>
+        <v>0.979947689625109</v>
       </c>
       <c r="K3">
-        <v>236.1</v>
+        <v>280.7</v>
       </c>
       <c r="L3">
-        <v>0.8790022338049143</v>
+        <v>1.223626852659111</v>
       </c>
       <c r="M3">
-        <v>276</v>
+        <v>241.5</v>
       </c>
       <c r="N3">
-        <v>0.0318662540987392</v>
+        <v>0.03418694525841933</v>
       </c>
       <c r="O3">
-        <v>1.168996188055909</v>
+        <v>0.8603491271820449</v>
       </c>
       <c r="P3">
-        <v>276</v>
+        <v>241.5</v>
       </c>
       <c r="Q3">
-        <v>0.0318662540987392</v>
+        <v>0.03418694525841933</v>
       </c>
       <c r="R3">
-        <v>1.168996188055909</v>
+        <v>0.8603491271820449</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.11</v>
+        <v>75.8</v>
       </c>
       <c r="V3">
-        <v>0.0001281577610492772</v>
+        <v>0.0107303124247958</v>
       </c>
       <c r="W3">
-        <v>0.05835969942653747</v>
+        <v>0.07115335868187579</v>
       </c>
       <c r="X3">
-        <v>0.07172893374100303</v>
+        <v>0.05870255866550585</v>
       </c>
       <c r="Y3">
-        <v>-0.01336923431446556</v>
+        <v>0.01245080001636995</v>
       </c>
       <c r="Z3">
-        <v>0.06796126205839932</v>
+        <v>0.05817255999837705</v>
       </c>
       <c r="AA3">
-        <v>0.06594714421803029</v>
+        <v>0.05700606576998762</v>
       </c>
       <c r="AB3">
-        <v>0.07160809225883678</v>
+        <v>0.05870255866550585</v>
       </c>
       <c r="AC3">
-        <v>-0.005660948040806496</v>
+        <v>-0.001696492895518223</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>31.85150129188614</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>31.85150129188614</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>30.74150129188614</v>
+        <v>-75.8</v>
       </c>
       <c r="AH3">
-        <v>0.003664018473507564</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.007908403227536477</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.003536781890135479</v>
+        <v>-0.01084670091438547</v>
       </c>
       <c r="AK3">
-        <v>0.007634905730537178</v>
+        <v>-0.01825406381697772</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>7.666209798475347</v>
       </c>
     </row>
   </sheetData>
